--- a/Etiquette/SRO-21_011_079-DETAIL-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21_011_079-DETAIL-ETIQUETTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\Etiquette\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C60AD8-9255-427B-AD1E-49342F7C6406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etiquette Poteau ORANGE" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Etiquette Cable" sheetId="3" r:id="rId3"/>
     <sheet name="Etiquette Boite" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1744,8 +1750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,11 +1813,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1853,7 +1867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1885,9 +1899,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1919,6 +1951,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2094,14 +2144,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2198,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2219,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2187,7 +2240,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2261,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2282,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2250,7 +2303,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2271,7 +2324,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2345,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2366,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2387,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2355,7 +2408,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2376,7 +2429,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2450,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2418,7 +2471,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -2439,7 +2492,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2513,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2481,7 +2534,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2502,7 +2555,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -2523,7 +2576,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2544,7 +2597,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2565,7 +2618,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2586,7 +2639,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2607,7 +2660,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2628,7 +2681,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2649,7 +2702,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2723,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -2691,7 +2744,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2712,7 +2765,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -2733,7 +2786,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -2754,7 +2807,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2828,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2796,7 +2849,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2817,7 +2870,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2838,7 +2891,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2859,7 +2912,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -2880,7 +2933,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -2901,7 +2954,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -2922,7 +2975,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -2943,7 +2996,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -2964,7 +3017,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -2985,7 +3038,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
@@ -3006,7 +3059,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
@@ -3027,7 +3080,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -3048,7 +3101,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -3069,7 +3122,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -3090,7 +3143,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -3111,7 +3164,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3185,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
@@ -3153,7 +3206,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -3174,7 +3227,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3248,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -3216,7 +3269,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3237,7 +3290,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -3258,7 +3311,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
@@ -3279,7 +3332,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -3306,14 +3359,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -3357,7 +3421,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -3378,7 +3442,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3399,7 +3463,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -3420,7 +3484,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
@@ -3441,7 +3505,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
@@ -3462,7 +3526,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -3483,7 +3547,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -3504,7 +3568,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3525,7 +3589,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -3546,7 +3610,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>93</v>
       </c>
@@ -3567,7 +3631,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
@@ -3588,7 +3652,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
@@ -3609,7 +3673,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
@@ -3630,7 +3694,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
@@ -3651,7 +3715,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -3672,7 +3736,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
@@ -3693,7 +3757,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -3714,7 +3778,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -3735,7 +3799,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
@@ -3756,7 +3820,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>103</v>
       </c>
@@ -3777,7 +3841,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>104</v>
       </c>
@@ -3798,7 +3862,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -3819,7 +3883,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>106</v>
       </c>
@@ -3846,14 +3910,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -3897,7 +3972,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +3993,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -3939,7 +4014,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
@@ -3960,7 +4035,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
@@ -3981,7 +4056,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
@@ -4002,7 +4077,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -4023,7 +4098,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
@@ -4044,7 +4119,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -4065,7 +4140,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
@@ -4086,7 +4161,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
@@ -4107,7 +4182,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>109</v>
       </c>
@@ -4128,7 +4203,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
@@ -4149,7 +4224,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
@@ -4170,7 +4245,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>117</v>
       </c>
@@ -4191,7 +4266,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>118</v>
       </c>
@@ -4212,7 +4287,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
@@ -4233,7 +4308,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>120</v>
       </c>
@@ -4254,7 +4329,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>121</v>
       </c>
@@ -4275,7 +4350,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
@@ -4296,7 +4371,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -4317,7 +4392,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -4338,7 +4413,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -4359,7 +4434,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -4380,7 +4455,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>123</v>
       </c>
@@ -4401,7 +4476,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
@@ -4422,7 +4497,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
@@ -4443,7 +4518,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
@@ -4464,7 +4539,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
@@ -4485,7 +4560,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -4506,7 +4581,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -4527,7 +4602,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>133</v>
       </c>
@@ -4548,7 +4623,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>134</v>
       </c>
@@ -4569,7 +4644,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
@@ -4590,7 +4665,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -4611,7 +4686,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>134</v>
       </c>
@@ -4632,7 +4707,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>133</v>
       </c>
@@ -4653,7 +4728,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -4674,7 +4749,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -4695,7 +4770,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
@@ -4716,7 +4791,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
@@ -4737,7 +4812,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>138</v>
       </c>
@@ -4758,7 +4833,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
@@ -4779,7 +4854,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>140</v>
       </c>
@@ -4800,7 +4875,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -4821,7 +4896,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4842,7 +4917,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -4863,7 +4938,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -4884,7 +4959,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4905,7 +4980,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>138</v>
       </c>
@@ -4926,7 +5001,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
@@ -4947,7 +5022,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
@@ -4968,7 +5043,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
@@ -4989,7 +5064,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>151</v>
       </c>
@@ -5010,7 +5085,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
@@ -5031,7 +5106,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>153</v>
       </c>
@@ -5052,7 +5127,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>155</v>
       </c>
@@ -5073,7 +5148,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -5094,7 +5169,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -5115,7 +5190,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>140</v>
       </c>
@@ -5136,7 +5211,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -5157,7 +5232,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
@@ -5178,7 +5253,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>138</v>
       </c>
@@ -5199,7 +5274,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
@@ -5220,7 +5295,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -5241,7 +5316,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -5262,7 +5337,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
@@ -5283,7 +5358,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>138</v>
       </c>
@@ -5304,7 +5379,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -5325,7 +5400,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>161</v>
       </c>
@@ -5346,7 +5421,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
@@ -5367,7 +5442,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -5388,7 +5463,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
@@ -5409,7 +5484,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>138</v>
       </c>
@@ -5430,7 +5505,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -5451,7 +5526,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>140</v>
       </c>
@@ -5472,7 +5547,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -5493,7 +5568,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>144</v>
       </c>
@@ -5514,7 +5589,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
@@ -5535,7 +5610,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -5556,7 +5631,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
@@ -5577,7 +5652,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>134</v>
       </c>
@@ -5598,7 +5673,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>133</v>
       </c>
@@ -5619,7 +5694,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>164</v>
       </c>
@@ -5640,7 +5715,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>167</v>
       </c>
@@ -5661,7 +5736,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>168</v>
       </c>
@@ -5682,7 +5757,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>164</v>
       </c>
@@ -5703,7 +5778,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>170</v>
       </c>
@@ -5724,7 +5799,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>171</v>
       </c>
@@ -5745,7 +5820,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>168</v>
       </c>
@@ -5766,7 +5841,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>172</v>
       </c>
@@ -5787,7 +5862,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>173</v>
       </c>
@@ -5808,7 +5883,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>173</v>
       </c>
@@ -5829,7 +5904,7 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>172</v>
       </c>
@@ -5850,7 +5925,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>171</v>
       </c>
@@ -5871,7 +5946,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>138</v>
       </c>
@@ -5892,7 +5967,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>175</v>
       </c>
@@ -5913,7 +5988,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>140</v>
       </c>
@@ -5934,7 +6009,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -5955,7 +6030,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>144</v>
       </c>
@@ -5976,7 +6051,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>175</v>
       </c>
@@ -5997,7 +6072,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>177</v>
       </c>
@@ -6018,7 +6093,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>178</v>
       </c>
@@ -6039,7 +6114,7 @@
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>175</v>
       </c>
@@ -6060,7 +6135,7 @@
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>180</v>
       </c>
@@ -6081,7 +6156,7 @@
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>181</v>
       </c>
@@ -6102,7 +6177,7 @@
       </c>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>180</v>
       </c>
@@ -6123,7 +6198,7 @@
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>183</v>
       </c>
@@ -6144,7 +6219,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>180</v>
       </c>
@@ -6165,7 +6240,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>185</v>
       </c>
@@ -6186,7 +6261,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>180</v>
       </c>
@@ -6207,7 +6282,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>187</v>
       </c>
@@ -6228,7 +6303,7 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>183</v>
       </c>
@@ -6249,7 +6324,7 @@
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>185</v>
       </c>
@@ -6270,7 +6345,7 @@
       </c>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>189</v>
       </c>
@@ -6291,7 +6366,7 @@
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>190</v>
       </c>
@@ -6312,7 +6387,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>189</v>
       </c>
@@ -6333,7 +6408,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>192</v>
       </c>
@@ -6354,7 +6429,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>192</v>
       </c>
@@ -6375,7 +6450,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>194</v>
       </c>
@@ -6396,7 +6471,7 @@
       </c>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>194</v>
       </c>
@@ -6417,7 +6492,7 @@
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>196</v>
       </c>
@@ -6438,7 +6513,7 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>194</v>
       </c>
@@ -6459,7 +6534,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>198</v>
       </c>
@@ -6480,7 +6555,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>199</v>
       </c>
@@ -6501,7 +6576,7 @@
       </c>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>201</v>
       </c>
@@ -6522,7 +6597,7 @@
       </c>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>202</v>
       </c>
@@ -6543,7 +6618,7 @@
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>201</v>
       </c>
@@ -6564,7 +6639,7 @@
       </c>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>203</v>
       </c>
@@ -6585,7 +6660,7 @@
       </c>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>204</v>
       </c>
@@ -6606,7 +6681,7 @@
       </c>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -6627,7 +6702,7 @@
       </c>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>203</v>
       </c>
@@ -6648,7 +6723,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>206</v>
       </c>
@@ -6669,7 +6744,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>207</v>
       </c>
@@ -6690,7 +6765,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>206</v>
       </c>
@@ -6711,7 +6786,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>209</v>
       </c>
@@ -6732,7 +6807,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>210</v>
       </c>
@@ -6753,7 +6828,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>201</v>
       </c>
@@ -6774,7 +6849,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>211</v>
       </c>
@@ -6795,7 +6870,7 @@
       </c>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>204</v>
       </c>
@@ -6816,7 +6891,7 @@
       </c>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -6837,7 +6912,7 @@
       </c>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>201</v>
       </c>
@@ -6858,7 +6933,7 @@
       </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>213</v>
       </c>
@@ -6879,7 +6954,7 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>201</v>
       </c>
@@ -6900,7 +6975,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>215</v>
       </c>
@@ -6921,7 +6996,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>204</v>
       </c>
@@ -6942,7 +7017,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>201</v>
       </c>
@@ -6963,7 +7038,7 @@
       </c>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>16</v>
       </c>
@@ -6984,7 +7059,7 @@
       </c>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>204</v>
       </c>
@@ -7005,7 +7080,7 @@
       </c>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>199</v>
       </c>
@@ -7026,7 +7101,7 @@
       </c>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>217</v>
       </c>
@@ -7047,7 +7122,7 @@
       </c>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>202</v>
       </c>
@@ -7068,7 +7143,7 @@
       </c>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>211</v>
       </c>
@@ -7089,7 +7164,7 @@
       </c>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>217</v>
       </c>
@@ -7110,7 +7185,7 @@
       </c>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>19</v>
       </c>
@@ -7131,7 +7206,7 @@
       </c>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>218</v>
       </c>
@@ -7152,7 +7227,7 @@
       </c>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>217</v>
       </c>
@@ -7173,7 +7248,7 @@
       </c>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>220</v>
       </c>
@@ -7194,7 +7269,7 @@
       </c>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>220</v>
       </c>
@@ -7215,7 +7290,7 @@
       </c>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7311,7 @@
       </c>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>221</v>
       </c>
@@ -7257,7 +7332,7 @@
       </c>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>222</v>
       </c>
@@ -7278,7 +7353,7 @@
       </c>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7299,7 +7374,7 @@
       </c>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>220</v>
       </c>
@@ -7320,7 +7395,7 @@
       </c>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>224</v>
       </c>
@@ -7341,7 +7416,7 @@
       </c>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>225</v>
       </c>
@@ -7362,7 +7437,7 @@
       </c>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>221</v>
       </c>
@@ -7383,7 +7458,7 @@
       </c>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>222</v>
       </c>
@@ -7404,7 +7479,7 @@
       </c>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7425,7 +7500,7 @@
       </c>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>224</v>
       </c>
@@ -7446,7 +7521,7 @@
       </c>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>90</v>
       </c>
@@ -7467,7 +7542,7 @@
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>220</v>
       </c>
@@ -7488,7 +7563,7 @@
       </c>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>94</v>
       </c>
@@ -7509,7 +7584,7 @@
       </c>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>221</v>
       </c>
@@ -7530,7 +7605,7 @@
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>94</v>
       </c>
@@ -7551,7 +7626,7 @@
       </c>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -7572,7 +7647,7 @@
       </c>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>222</v>
       </c>
@@ -7593,7 +7668,7 @@
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>221</v>
       </c>
@@ -7614,7 +7689,7 @@
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>220</v>
       </c>
@@ -7635,7 +7710,7 @@
       </c>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>229</v>
       </c>
@@ -7656,7 +7731,7 @@
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>221</v>
       </c>
@@ -7677,7 +7752,7 @@
       </c>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>222</v>
       </c>
@@ -7698,7 +7773,7 @@
       </c>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -7719,7 +7794,7 @@
       </c>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>230</v>
       </c>
@@ -7740,7 +7815,7 @@
       </c>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>231</v>
       </c>
@@ -7761,7 +7836,7 @@
       </c>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>232</v>
       </c>
@@ -7782,7 +7857,7 @@
       </c>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>231</v>
       </c>
@@ -7803,7 +7878,7 @@
       </c>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>95</v>
       </c>
@@ -7824,7 +7899,7 @@
       </c>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>230</v>
       </c>
@@ -7845,7 +7920,7 @@
       </c>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>235</v>
       </c>
@@ -7866,7 +7941,7 @@
       </c>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>100</v>
       </c>
@@ -7887,7 +7962,7 @@
       </c>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>99</v>
       </c>
@@ -7908,7 +7983,7 @@
       </c>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>99</v>
       </c>
@@ -7929,7 +8004,7 @@
       </c>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>239</v>
       </c>
@@ -7950,7 +8025,7 @@
       </c>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>239</v>
       </c>
@@ -7971,7 +8046,7 @@
       </c>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>104</v>
       </c>
@@ -7992,7 +8067,7 @@
       </c>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>98</v>
       </c>
@@ -8013,7 +8088,7 @@
       </c>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -8034,7 +8109,7 @@
       </c>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -8055,7 +8130,7 @@
       </c>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>97</v>
       </c>
@@ -8076,7 +8151,7 @@
       </c>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>235</v>
       </c>
@@ -8097,7 +8172,7 @@
       </c>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -8118,7 +8193,7 @@
       </c>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>235</v>
       </c>
@@ -8139,7 +8214,7 @@
       </c>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>247</v>
       </c>
@@ -8160,7 +8235,7 @@
       </c>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>248</v>
       </c>
@@ -8181,7 +8256,7 @@
       </c>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>247</v>
       </c>
@@ -8202,7 +8277,7 @@
       </c>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>250</v>
       </c>
@@ -8223,7 +8298,7 @@
       </c>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>251</v>
       </c>
@@ -8244,7 +8319,7 @@
       </c>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>250</v>
       </c>
@@ -8265,7 +8340,7 @@
       </c>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>33</v>
       </c>
@@ -8286,7 +8361,7 @@
       </c>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>33</v>
       </c>
@@ -8307,7 +8382,7 @@
       </c>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>38</v>
       </c>
@@ -8328,7 +8403,7 @@
       </c>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>247</v>
       </c>
@@ -8349,7 +8424,7 @@
       </c>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>39</v>
       </c>
@@ -8370,7 +8445,7 @@
       </c>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>252</v>
       </c>
@@ -8391,7 +8466,7 @@
       </c>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>253</v>
       </c>
@@ -8412,7 +8487,7 @@
       </c>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>254</v>
       </c>
@@ -8433,7 +8508,7 @@
       </c>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>247</v>
       </c>
@@ -8454,7 +8529,7 @@
       </c>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>42</v>
       </c>
@@ -8475,7 +8550,7 @@
       </c>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>253</v>
       </c>
@@ -8496,7 +8571,7 @@
       </c>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>254</v>
       </c>
@@ -8517,7 +8592,7 @@
       </c>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>247</v>
       </c>
@@ -8538,7 +8613,7 @@
       </c>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>256</v>
       </c>
@@ -8559,7 +8634,7 @@
       </c>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>253</v>
       </c>
@@ -8580,7 +8655,7 @@
       </c>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>256</v>
       </c>
@@ -8601,7 +8676,7 @@
       </c>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>96</v>
       </c>
@@ -8622,7 +8697,7 @@
       </c>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>96</v>
       </c>
@@ -8643,7 +8718,7 @@
       </c>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>259</v>
       </c>
@@ -8664,7 +8739,7 @@
       </c>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>256</v>
       </c>
@@ -8685,7 +8760,7 @@
       </c>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>261</v>
       </c>
@@ -8706,7 +8781,7 @@
       </c>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>261</v>
       </c>
@@ -8727,7 +8802,7 @@
       </c>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>263</v>
       </c>
@@ -8748,7 +8823,7 @@
       </c>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>263</v>
       </c>
@@ -8769,7 +8844,7 @@
       </c>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>265</v>
       </c>
@@ -8790,7 +8865,7 @@
       </c>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>265</v>
       </c>
@@ -8811,7 +8886,7 @@
       </c>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>267</v>
       </c>
@@ -8832,7 +8907,7 @@
       </c>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>267</v>
       </c>
@@ -8853,7 +8928,7 @@
       </c>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -8874,7 +8949,7 @@
       </c>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>270</v>
       </c>
@@ -8895,7 +8970,7 @@
       </c>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>271</v>
       </c>
@@ -8916,7 +8991,7 @@
       </c>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>48</v>
       </c>
@@ -8937,7 +9012,7 @@
       </c>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>271</v>
       </c>
@@ -8958,7 +9033,7 @@
       </c>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>273</v>
       </c>
@@ -8979,7 +9054,7 @@
       </c>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>92</v>
       </c>
@@ -9000,7 +9075,7 @@
       </c>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>91</v>
       </c>
@@ -9021,7 +9096,7 @@
       </c>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>81</v>
       </c>
@@ -9042,7 +9117,7 @@
       </c>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>273</v>
       </c>
@@ -9063,7 +9138,7 @@
       </c>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>275</v>
       </c>
@@ -9084,7 +9159,7 @@
       </c>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>271</v>
       </c>
@@ -9105,7 +9180,7 @@
       </c>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>277</v>
       </c>
@@ -9126,7 +9201,7 @@
       </c>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>278</v>
       </c>
@@ -9147,7 +9222,7 @@
       </c>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>81</v>
       </c>
@@ -9168,7 +9243,7 @@
       </c>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>91</v>
       </c>
@@ -9189,7 +9264,7 @@
       </c>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>92</v>
       </c>
@@ -9210,7 +9285,7 @@
       </c>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -9231,7 +9306,7 @@
       </c>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>275</v>
       </c>
@@ -9252,7 +9327,7 @@
       </c>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>271</v>
       </c>
@@ -9273,7 +9348,7 @@
       </c>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>280</v>
       </c>
@@ -9294,7 +9369,7 @@
       </c>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>81</v>
       </c>
@@ -9315,7 +9390,7 @@
       </c>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>91</v>
       </c>
@@ -9336,7 +9411,7 @@
       </c>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>92</v>
       </c>
@@ -9357,7 +9432,7 @@
       </c>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>273</v>
       </c>
@@ -9378,7 +9453,7 @@
       </c>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>275</v>
       </c>
@@ -9399,7 +9474,7 @@
       </c>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>280</v>
       </c>
@@ -9420,7 +9495,7 @@
       </c>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>282</v>
       </c>
@@ -9441,7 +9516,7 @@
       </c>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>282</v>
       </c>
@@ -9462,7 +9537,7 @@
       </c>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>284</v>
       </c>
@@ -9483,7 +9558,7 @@
       </c>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>284</v>
       </c>
@@ -9504,7 +9579,7 @@
       </c>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>286</v>
       </c>
@@ -9525,7 +9600,7 @@
       </c>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>280</v>
       </c>
@@ -9546,7 +9621,7 @@
       </c>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>288</v>
       </c>
@@ -9567,7 +9642,7 @@
       </c>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>289</v>
       </c>
@@ -9588,7 +9663,7 @@
       </c>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>288</v>
       </c>
@@ -9609,7 +9684,7 @@
       </c>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>291</v>
       </c>
@@ -9630,7 +9705,7 @@
       </c>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>292</v>
       </c>
@@ -9651,7 +9726,7 @@
       </c>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>280</v>
       </c>
@@ -9672,7 +9747,7 @@
       </c>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>294</v>
       </c>
@@ -9693,7 +9768,7 @@
       </c>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>295</v>
       </c>
@@ -9714,7 +9789,7 @@
       </c>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>296</v>
       </c>
@@ -9735,7 +9810,7 @@
       </c>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>297</v>
       </c>
@@ -9756,7 +9831,7 @@
       </c>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>294</v>
       </c>
@@ -9777,7 +9852,7 @@
       </c>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>49</v>
       </c>
@@ -9798,7 +9873,7 @@
       </c>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>103</v>
       </c>
@@ -9819,7 +9894,7 @@
       </c>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>298</v>
       </c>
@@ -9840,7 +9915,7 @@
       </c>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>294</v>
       </c>
@@ -9861,7 +9936,7 @@
       </c>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>300</v>
       </c>
@@ -9882,7 +9957,7 @@
       </c>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>294</v>
       </c>
@@ -9903,7 +9978,7 @@
       </c>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>52</v>
       </c>
@@ -9924,7 +9999,7 @@
       </c>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>52</v>
       </c>
@@ -9945,7 +10020,7 @@
       </c>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>301</v>
       </c>
@@ -9966,7 +10041,7 @@
       </c>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>302</v>
       </c>
@@ -9987,7 +10062,7 @@
       </c>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>303</v>
       </c>
@@ -10008,7 +10083,7 @@
       </c>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>52</v>
       </c>
@@ -10029,7 +10104,7 @@
       </c>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>102</v>
       </c>
@@ -10050,7 +10125,7 @@
       </c>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>303</v>
       </c>
@@ -10071,7 +10146,7 @@
       </c>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>302</v>
       </c>
@@ -10092,7 +10167,7 @@
       </c>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>301</v>
       </c>
@@ -10113,7 +10188,7 @@
       </c>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>52</v>
       </c>
@@ -10134,7 +10209,7 @@
       </c>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>60</v>
       </c>
@@ -10155,7 +10230,7 @@
       </c>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
@@ -10176,7 +10251,7 @@
       </c>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>302</v>
       </c>
@@ -10197,7 +10272,7 @@
       </c>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -10218,7 +10293,7 @@
       </c>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>304</v>
       </c>
@@ -10239,7 +10314,7 @@
       </c>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>306</v>
       </c>
@@ -10260,7 +10335,7 @@
       </c>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>307</v>
       </c>
@@ -10281,7 +10356,7 @@
       </c>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>308</v>
       </c>
@@ -10302,7 +10377,7 @@
       </c>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -10323,7 +10398,7 @@
       </c>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>309</v>
       </c>
@@ -10344,7 +10419,7 @@
       </c>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>311</v>
       </c>
@@ -10365,7 +10440,7 @@
       </c>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>312</v>
       </c>
@@ -10386,7 +10461,7 @@
       </c>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>309</v>
       </c>
@@ -10407,7 +10482,7 @@
       </c>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>314</v>
       </c>
@@ -10428,7 +10503,7 @@
       </c>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>312</v>
       </c>
@@ -10449,7 +10524,7 @@
       </c>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -10470,7 +10545,7 @@
       </c>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>316</v>
       </c>
@@ -10491,7 +10566,7 @@
       </c>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>317</v>
       </c>
@@ -10512,7 +10587,7 @@
       </c>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>318</v>
       </c>
@@ -10533,7 +10608,7 @@
       </c>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>319</v>
       </c>
@@ -10554,7 +10629,7 @@
       </c>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>316</v>
       </c>
@@ -10575,7 +10650,7 @@
       </c>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -10596,7 +10671,7 @@
       </c>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -10617,7 +10692,7 @@
       </c>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>85</v>
       </c>
@@ -10638,7 +10713,7 @@
       </c>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>322</v>
       </c>
@@ -10659,7 +10734,7 @@
       </c>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>323</v>
       </c>
@@ -10680,7 +10755,7 @@
       </c>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>320</v>
       </c>
@@ -10701,7 +10776,7 @@
       </c>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>325</v>
       </c>
@@ -10722,7 +10797,7 @@
       </c>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>326</v>
       </c>
@@ -10743,7 +10818,7 @@
       </c>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>86</v>
       </c>
@@ -10764,7 +10839,7 @@
       </c>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>270</v>
       </c>
@@ -10785,7 +10860,7 @@
       </c>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>87</v>
       </c>
@@ -10806,7 +10881,7 @@
       </c>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>270</v>
       </c>
@@ -10827,7 +10902,7 @@
       </c>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>48</v>
       </c>
@@ -10848,7 +10923,7 @@
       </c>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>316</v>
       </c>
@@ -10869,7 +10944,7 @@
       </c>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>85</v>
       </c>
@@ -10890,7 +10965,7 @@
       </c>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>321</v>
       </c>
@@ -10911,7 +10986,7 @@
       </c>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>85</v>
       </c>
@@ -10932,7 +11007,7 @@
       </c>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>322</v>
       </c>
@@ -10953,7 +11028,7 @@
       </c>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>322</v>
       </c>
@@ -10974,7 +11049,7 @@
       </c>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>330</v>
       </c>
@@ -10995,7 +11070,7 @@
       </c>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>330</v>
       </c>
@@ -11016,7 +11091,7 @@
       </c>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>332</v>
       </c>
@@ -11037,7 +11112,7 @@
       </c>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>330</v>
       </c>
@@ -11058,7 +11133,7 @@
       </c>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>334</v>
       </c>
@@ -11079,7 +11154,7 @@
       </c>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>330</v>
       </c>
@@ -11100,7 +11175,7 @@
       </c>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>323</v>
       </c>
@@ -11121,7 +11196,7 @@
       </c>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>332</v>
       </c>
@@ -11142,7 +11217,7 @@
       </c>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>323</v>
       </c>
@@ -11163,7 +11238,7 @@
       </c>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>337</v>
       </c>
@@ -11184,7 +11259,7 @@
       </c>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>337</v>
       </c>
@@ -11205,7 +11280,7 @@
       </c>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>339</v>
       </c>
@@ -11226,7 +11301,7 @@
       </c>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>337</v>
       </c>
@@ -11247,7 +11322,7 @@
       </c>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>341</v>
       </c>
@@ -11268,7 +11343,7 @@
       </c>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>342</v>
       </c>
@@ -11289,7 +11364,7 @@
       </c>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>341</v>
       </c>
@@ -11310,7 +11385,7 @@
       </c>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>344</v>
       </c>
@@ -11331,7 +11406,7 @@
       </c>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>344</v>
       </c>
@@ -11352,7 +11427,7 @@
       </c>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>346</v>
       </c>
@@ -11373,7 +11448,7 @@
       </c>
       <c r="G358" s="2"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>347</v>
       </c>
@@ -11394,7 +11469,7 @@
       </c>
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>348</v>
       </c>
@@ -11415,7 +11490,7 @@
       </c>
       <c r="G360" s="2"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>337</v>
       </c>
@@ -11436,7 +11511,7 @@
       </c>
       <c r="G361" s="2"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>339</v>
       </c>
@@ -11457,7 +11532,7 @@
       </c>
       <c r="G362" s="2"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>350</v>
       </c>
@@ -11478,7 +11553,7 @@
       </c>
       <c r="G363" s="2"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>352</v>
       </c>
@@ -11499,7 +11574,7 @@
       </c>
       <c r="G364" s="2"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>353</v>
       </c>
@@ -11520,7 +11595,7 @@
       </c>
       <c r="G365" s="2"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>354</v>
       </c>
@@ -11541,7 +11616,7 @@
       </c>
       <c r="G366" s="2"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>355</v>
       </c>
@@ -11562,7 +11637,7 @@
       </c>
       <c r="G367" s="2"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>356</v>
       </c>
@@ -11583,7 +11658,7 @@
       </c>
       <c r="G368" s="2"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>357</v>
       </c>
@@ -11604,7 +11679,7 @@
       </c>
       <c r="G369" s="2"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>358</v>
       </c>
@@ -11625,7 +11700,7 @@
       </c>
       <c r="G370" s="2"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>359</v>
       </c>
@@ -11646,7 +11721,7 @@
       </c>
       <c r="G371" s="2"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>360</v>
       </c>
@@ -11667,7 +11742,7 @@
       </c>
       <c r="G372" s="2"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>361</v>
       </c>
@@ -11688,7 +11763,7 @@
       </c>
       <c r="G373" s="2"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>362</v>
       </c>
@@ -11709,7 +11784,7 @@
       </c>
       <c r="G374" s="2"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>350</v>
       </c>
@@ -11730,7 +11805,7 @@
       </c>
       <c r="G375" s="2"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>364</v>
       </c>
@@ -11751,7 +11826,7 @@
       </c>
       <c r="G376" s="2"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>353</v>
       </c>
@@ -11772,7 +11847,7 @@
       </c>
       <c r="G377" s="2"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>354</v>
       </c>
@@ -11793,7 +11868,7 @@
       </c>
       <c r="G378" s="2"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>355</v>
       </c>
@@ -11814,7 +11889,7 @@
       </c>
       <c r="G379" s="2"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -11835,7 +11910,7 @@
       </c>
       <c r="G380" s="2"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>357</v>
       </c>
@@ -11856,7 +11931,7 @@
       </c>
       <c r="G381" s="2"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>358</v>
       </c>
@@ -11877,7 +11952,7 @@
       </c>
       <c r="G382" s="2"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>359</v>
       </c>
@@ -11898,7 +11973,7 @@
       </c>
       <c r="G383" s="2"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>360</v>
       </c>
@@ -11919,7 +11994,7 @@
       </c>
       <c r="G384" s="2"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>361</v>
       </c>
@@ -11940,7 +12015,7 @@
       </c>
       <c r="G385" s="2"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>362</v>
       </c>
@@ -11961,7 +12036,7 @@
       </c>
       <c r="G386" s="2"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>364</v>
       </c>
@@ -11982,7 +12057,7 @@
       </c>
       <c r="G387" s="2"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>366</v>
       </c>
@@ -12003,7 +12078,7 @@
       </c>
       <c r="G388" s="2"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>366</v>
       </c>
@@ -12024,7 +12099,7 @@
       </c>
       <c r="G389" s="2"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>368</v>
       </c>
@@ -12045,7 +12120,7 @@
       </c>
       <c r="G390" s="2"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>369</v>
       </c>
@@ -12066,7 +12141,7 @@
       </c>
       <c r="G391" s="2"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>370</v>
       </c>
@@ -12087,7 +12162,7 @@
       </c>
       <c r="G392" s="2"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>371</v>
       </c>
@@ -12108,7 +12183,7 @@
       </c>
       <c r="G393" s="2"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>372</v>
       </c>
@@ -12129,7 +12204,7 @@
       </c>
       <c r="G394" s="2"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>366</v>
       </c>
@@ -12150,7 +12225,7 @@
       </c>
       <c r="G395" s="2"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>350</v>
       </c>
@@ -12171,7 +12246,7 @@
       </c>
       <c r="G396" s="2"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>354</v>
       </c>
@@ -12192,7 +12267,7 @@
       </c>
       <c r="G397" s="2"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>353</v>
       </c>
@@ -12213,7 +12288,7 @@
       </c>
       <c r="G398" s="2"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>354</v>
       </c>
@@ -12234,7 +12309,7 @@
       </c>
       <c r="G399" s="2"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>355</v>
       </c>
@@ -12255,7 +12330,7 @@
       </c>
       <c r="G400" s="2"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>355</v>
       </c>
@@ -12276,7 +12351,7 @@
       </c>
       <c r="G401" s="2"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>358</v>
       </c>
@@ -12297,7 +12372,7 @@
       </c>
       <c r="G402" s="2"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>357</v>
       </c>
@@ -12318,7 +12393,7 @@
       </c>
       <c r="G403" s="2"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>356</v>
       </c>
@@ -12339,7 +12414,7 @@
       </c>
       <c r="G404" s="2"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>358</v>
       </c>
@@ -12360,7 +12435,7 @@
       </c>
       <c r="G405" s="2"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>377</v>
       </c>
@@ -12381,7 +12456,7 @@
       </c>
       <c r="G406" s="2"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>358</v>
       </c>
@@ -12402,7 +12477,7 @@
       </c>
       <c r="G407" s="2"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>362</v>
       </c>
@@ -12423,7 +12498,7 @@
       </c>
       <c r="G408" s="2"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>361</v>
       </c>
@@ -12444,7 +12519,7 @@
       </c>
       <c r="G409" s="2"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>359</v>
       </c>
@@ -12465,7 +12540,7 @@
       </c>
       <c r="G410" s="2"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>360</v>
       </c>
@@ -12486,7 +12561,7 @@
       </c>
       <c r="G411" s="2"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>358</v>
       </c>
@@ -12507,7 +12582,7 @@
       </c>
       <c r="G412" s="2"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>380</v>
       </c>
@@ -12528,7 +12603,7 @@
       </c>
       <c r="G413" s="2"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>359</v>
       </c>
@@ -12549,7 +12624,7 @@
       </c>
       <c r="G414" s="2"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>381</v>
       </c>
@@ -12570,7 +12645,7 @@
       </c>
       <c r="G415" s="2"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>383</v>
       </c>
@@ -12591,7 +12666,7 @@
       </c>
       <c r="G416" s="2"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>384</v>
       </c>
@@ -12612,7 +12687,7 @@
       </c>
       <c r="G417" s="2"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>385</v>
       </c>
@@ -12633,7 +12708,7 @@
       </c>
       <c r="G418" s="2"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>387</v>
       </c>
@@ -12654,7 +12729,7 @@
       </c>
       <c r="G419" s="2"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>387</v>
       </c>
@@ -12675,7 +12750,7 @@
       </c>
       <c r="G420" s="2"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>389</v>
       </c>
@@ -12696,7 +12771,7 @@
       </c>
       <c r="G421" s="2"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>390</v>
       </c>
@@ -12717,7 +12792,7 @@
       </c>
       <c r="G422" s="2"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>391</v>
       </c>
@@ -12738,7 +12813,7 @@
       </c>
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>294</v>
       </c>
@@ -12759,7 +12834,7 @@
       </c>
       <c r="G424" s="2"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>89</v>
       </c>
@@ -12780,7 +12855,7 @@
       </c>
       <c r="G425" s="2"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>52</v>
       </c>
@@ -12801,7 +12876,7 @@
       </c>
       <c r="G426" s="2"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>303</v>
       </c>
@@ -12822,7 +12897,7 @@
       </c>
       <c r="G427" s="2"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>302</v>
       </c>
@@ -12843,7 +12918,7 @@
       </c>
       <c r="G428" s="2"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>301</v>
       </c>
@@ -12864,7 +12939,7 @@
       </c>
       <c r="G429" s="2"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>380</v>
       </c>
@@ -12885,7 +12960,7 @@
       </c>
       <c r="G430" s="2"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>381</v>
       </c>
@@ -12906,7 +12981,7 @@
       </c>
       <c r="G431" s="2"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>393</v>
       </c>
@@ -12927,7 +13002,7 @@
       </c>
       <c r="G432" s="2"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>350</v>
       </c>
@@ -12948,7 +13023,7 @@
       </c>
       <c r="G433" s="2"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>66</v>
       </c>
@@ -12969,7 +13044,7 @@
       </c>
       <c r="G434" s="2"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>353</v>
       </c>
@@ -12990,7 +13065,7 @@
       </c>
       <c r="G435" s="2"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>354</v>
       </c>
@@ -13011,7 +13086,7 @@
       </c>
       <c r="G436" s="2"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>355</v>
       </c>
@@ -13032,7 +13107,7 @@
       </c>
       <c r="G437" s="2"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>356</v>
       </c>
@@ -13053,7 +13128,7 @@
       </c>
       <c r="G438" s="2"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>357</v>
       </c>
@@ -13074,7 +13149,7 @@
       </c>
       <c r="G439" s="2"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>358</v>
       </c>
@@ -13095,7 +13170,7 @@
       </c>
       <c r="G440" s="2"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>359</v>
       </c>
@@ -13116,7 +13191,7 @@
       </c>
       <c r="G441" s="2"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>360</v>
       </c>
@@ -13137,7 +13212,7 @@
       </c>
       <c r="G442" s="2"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>361</v>
       </c>
@@ -13158,7 +13233,7 @@
       </c>
       <c r="G443" s="2"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>362</v>
       </c>
@@ -13179,7 +13254,7 @@
       </c>
       <c r="G444" s="2"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>394</v>
       </c>
@@ -13200,7 +13275,7 @@
       </c>
       <c r="G445" s="2"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>304</v>
       </c>
@@ -13221,7 +13296,7 @@
       </c>
       <c r="G446" s="2"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>394</v>
       </c>
@@ -13242,7 +13317,7 @@
       </c>
       <c r="G447" s="2"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>309</v>
       </c>
@@ -13263,7 +13338,7 @@
       </c>
       <c r="G448" s="2"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>397</v>
       </c>
@@ -13284,7 +13359,7 @@
       </c>
       <c r="G449" s="2"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>398</v>
       </c>
@@ -13305,7 +13380,7 @@
       </c>
       <c r="G450" s="2"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>399</v>
       </c>
@@ -13326,7 +13401,7 @@
       </c>
       <c r="G451" s="2"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>400</v>
       </c>
@@ -13347,7 +13422,7 @@
       </c>
       <c r="G452" s="2"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>350</v>
       </c>
@@ -13368,7 +13443,7 @@
       </c>
       <c r="G453" s="2"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>353</v>
       </c>
@@ -13389,7 +13464,7 @@
       </c>
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>354</v>
       </c>
@@ -13410,7 +13485,7 @@
       </c>
       <c r="G455" s="2"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>355</v>
       </c>
@@ -13431,7 +13506,7 @@
       </c>
       <c r="G456" s="2"/>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>356</v>
       </c>
@@ -13452,7 +13527,7 @@
       </c>
       <c r="G457" s="2"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>357</v>
       </c>
@@ -13473,7 +13548,7 @@
       </c>
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>358</v>
       </c>
@@ -13494,7 +13569,7 @@
       </c>
       <c r="G459" s="2"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>359</v>
       </c>
@@ -13515,7 +13590,7 @@
       </c>
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>360</v>
       </c>
@@ -13536,7 +13611,7 @@
       </c>
       <c r="G461" s="2"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>361</v>
       </c>
@@ -13557,7 +13632,7 @@
       </c>
       <c r="G462" s="2"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>362</v>
       </c>
@@ -13578,7 +13653,7 @@
       </c>
       <c r="G463" s="2"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>394</v>
       </c>
@@ -13599,7 +13674,7 @@
       </c>
       <c r="G464" s="2"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>350</v>
       </c>
@@ -13620,7 +13695,7 @@
       </c>
       <c r="G465" s="2"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>400</v>
       </c>
@@ -13641,7 +13716,7 @@
       </c>
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>397</v>
       </c>
@@ -13662,7 +13737,7 @@
       </c>
       <c r="G467" s="2"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>398</v>
       </c>
@@ -13683,7 +13758,7 @@
       </c>
       <c r="G468" s="2"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>399</v>
       </c>
@@ -13704,7 +13779,7 @@
       </c>
       <c r="G469" s="2"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>316</v>
       </c>
@@ -13725,7 +13800,7 @@
       </c>
       <c r="G470" s="2"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>86</v>
       </c>
@@ -13746,7 +13821,7 @@
       </c>
       <c r="G471" s="2"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>321</v>
       </c>
@@ -13767,7 +13842,7 @@
       </c>
       <c r="G472" s="2"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>85</v>
       </c>
@@ -13788,7 +13863,7 @@
       </c>
       <c r="G473" s="2"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>322</v>
       </c>
@@ -13809,7 +13884,7 @@
       </c>
       <c r="G474" s="2"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>323</v>
       </c>
@@ -13830,7 +13905,7 @@
       </c>
       <c r="G475" s="2"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>380</v>
       </c>
@@ -13851,7 +13926,7 @@
       </c>
       <c r="G476" s="2"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>385</v>
       </c>
@@ -13872,7 +13947,7 @@
       </c>
       <c r="G477" s="2"/>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>403</v>
       </c>
@@ -13893,7 +13968,7 @@
       </c>
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>84</v>
       </c>
@@ -13914,7 +13989,7 @@
       </c>
       <c r="G479" s="2"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>194</v>
       </c>
@@ -13935,7 +14010,7 @@
       </c>
       <c r="G480" s="2"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>406</v>
       </c>
@@ -13956,7 +14031,7 @@
       </c>
       <c r="G481" s="2"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>407</v>
       </c>
@@ -13977,7 +14052,7 @@
       </c>
       <c r="G482" s="2"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>230</v>
       </c>
@@ -13998,7 +14073,7 @@
       </c>
       <c r="G483" s="2"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>408</v>
       </c>
@@ -14019,7 +14094,7 @@
       </c>
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>410</v>
       </c>
@@ -14040,7 +14115,7 @@
       </c>
       <c r="G485" s="2"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>232</v>
       </c>
@@ -14061,7 +14136,7 @@
       </c>
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>231</v>
       </c>
@@ -14082,7 +14157,7 @@
       </c>
       <c r="G487" s="2"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>95</v>
       </c>
@@ -14103,7 +14178,7 @@
       </c>
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>230</v>
       </c>
@@ -14124,7 +14199,7 @@
       </c>
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>412</v>
       </c>
@@ -14145,7 +14220,7 @@
       </c>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>412</v>
       </c>
@@ -14166,7 +14241,7 @@
       </c>
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>414</v>
       </c>
@@ -14187,7 +14262,7 @@
       </c>
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>415</v>
       </c>
@@ -14208,7 +14283,7 @@
       </c>
       <c r="G493" s="2"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>416</v>
       </c>
@@ -14229,7 +14304,7 @@
       </c>
       <c r="G494" s="2"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>412</v>
       </c>
@@ -14250,7 +14325,7 @@
       </c>
       <c r="G495" s="2"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>100</v>
       </c>
@@ -14271,7 +14346,7 @@
       </c>
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>415</v>
       </c>
@@ -14292,7 +14367,7 @@
       </c>
       <c r="G497" s="2"/>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>416</v>
       </c>
@@ -14313,7 +14388,7 @@
       </c>
       <c r="G498" s="2"/>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>239</v>
       </c>
@@ -14334,7 +14409,7 @@
       </c>
       <c r="G499" s="2"/>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>98</v>
       </c>
@@ -14355,7 +14430,7 @@
       </c>
       <c r="G500" s="2"/>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>247</v>
       </c>
@@ -14376,7 +14451,7 @@
       </c>
       <c r="G501" s="2"/>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>419</v>
       </c>
@@ -14397,7 +14472,7 @@
       </c>
       <c r="G502" s="2"/>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>253</v>
       </c>
@@ -14418,7 +14493,7 @@
       </c>
       <c r="G503" s="2"/>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>254</v>
       </c>
@@ -14439,7 +14514,7 @@
       </c>
       <c r="G504" s="2"/>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>42</v>
       </c>
@@ -14460,7 +14535,7 @@
       </c>
       <c r="G505" s="2"/>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>270</v>
       </c>
@@ -14481,7 +14556,7 @@
       </c>
       <c r="G506" s="2"/>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>394</v>
       </c>
@@ -14502,7 +14577,7 @@
       </c>
       <c r="G507" s="2"/>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>420</v>
       </c>
@@ -14523,7 +14598,7 @@
       </c>
       <c r="G508" s="2"/>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>421</v>
       </c>
@@ -14544,7 +14619,7 @@
       </c>
       <c r="G509" s="2"/>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>48</v>
       </c>
@@ -14565,7 +14640,7 @@
       </c>
       <c r="G510" s="2"/>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>270</v>
       </c>
@@ -14586,7 +14661,7 @@
       </c>
       <c r="G511" s="2"/>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>107</v>
       </c>
@@ -14607,7 +14682,7 @@
       </c>
       <c r="G512" s="2"/>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>48</v>
       </c>
@@ -14628,7 +14703,7 @@
       </c>
       <c r="G513" s="2"/>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>270</v>
       </c>
@@ -14649,7 +14724,7 @@
       </c>
       <c r="G514" s="2"/>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>199</v>
       </c>
@@ -14670,7 +14745,7 @@
       </c>
       <c r="G515" s="2"/>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>48</v>
       </c>
@@ -14691,7 +14766,7 @@
       </c>
       <c r="G516" s="2"/>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>270</v>
       </c>
@@ -14712,7 +14787,7 @@
       </c>
       <c r="G517" s="2"/>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>230</v>
       </c>
@@ -14733,7 +14808,7 @@
       </c>
       <c r="G518" s="2"/>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>48</v>
       </c>
@@ -14760,14 +14835,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14790,7 +14876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>389</v>
       </c>
@@ -14811,7 +14897,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>385</v>
       </c>
@@ -14832,7 +14918,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>387</v>
       </c>
@@ -14853,7 +14939,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>380</v>
       </c>
@@ -14874,7 +14960,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>362</v>
       </c>
@@ -14895,7 +14981,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -14916,7 +15002,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>358</v>
       </c>
@@ -14937,7 +15023,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>377</v>
       </c>
@@ -14958,7 +15044,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>354</v>
       </c>
@@ -14979,7 +15065,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>381</v>
       </c>
@@ -15000,7 +15086,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>383</v>
       </c>
@@ -15021,7 +15107,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>352</v>
       </c>
@@ -15042,7 +15128,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>350</v>
       </c>
@@ -15063,7 +15149,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>368</v>
       </c>
@@ -15084,7 +15170,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>366</v>
       </c>
@@ -15105,7 +15191,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -15126,7 +15212,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>364</v>
       </c>
@@ -15147,7 +15233,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>177</v>
       </c>
@@ -15168,7 +15254,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -15189,7 +15275,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -15210,7 +15296,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -15231,7 +15317,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>444</v>
       </c>
@@ -15252,7 +15338,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>339</v>
       </c>
@@ -15273,7 +15359,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>344</v>
       </c>
@@ -15294,7 +15380,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>346</v>
       </c>
@@ -15315,7 +15401,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>341</v>
       </c>
@@ -15336,7 +15422,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>323</v>
       </c>
@@ -15357,7 +15443,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>334</v>
       </c>
@@ -15378,7 +15464,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>332</v>
       </c>
@@ -15399,7 +15485,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -15420,7 +15506,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>322</v>
       </c>
@@ -15441,7 +15527,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>311</v>
       </c>
@@ -15462,7 +15548,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>309</v>
       </c>
@@ -15483,7 +15569,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>314</v>
       </c>
@@ -15504,7 +15590,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>306</v>
       </c>
@@ -15525,7 +15611,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>320</v>
       </c>
@@ -15546,7 +15632,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>316</v>
       </c>
@@ -15567,7 +15653,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>325</v>
       </c>
@@ -15588,7 +15674,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
@@ -15609,7 +15695,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -15630,7 +15716,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>136</v>
       </c>
@@ -15651,7 +15737,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
@@ -15672,7 +15758,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -15693,7 +15779,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>406</v>
       </c>
@@ -15714,7 +15800,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>196</v>
       </c>
@@ -15735,7 +15821,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>198</v>
       </c>
@@ -15756,7 +15842,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>194</v>
       </c>
@@ -15777,7 +15863,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -15798,7 +15884,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
@@ -15819,7 +15905,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>185</v>
       </c>
@@ -15840,7 +15926,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>187</v>
       </c>
@@ -15861,7 +15947,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -15882,7 +15968,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>183</v>
       </c>
@@ -15903,7 +15989,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -15924,7 +16010,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -15945,7 +16031,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -15966,7 +16052,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
@@ -15987,7 +16073,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -16008,7 +16094,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>147</v>
       </c>
@@ -16029,7 +16115,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
@@ -16050,7 +16136,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>151</v>
       </c>
@@ -16071,7 +16157,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>153</v>
       </c>
@@ -16092,7 +16178,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -16113,7 +16199,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
@@ -16134,7 +16220,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -16155,7 +16241,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -16176,7 +16262,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -16197,7 +16283,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -16218,7 +16304,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>115</v>
       </c>
@@ -16239,7 +16325,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
@@ -16260,7 +16346,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>88</v>
       </c>
@@ -16281,7 +16367,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>117</v>
       </c>
@@ -16302,7 +16388,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>60</v>
       </c>
@@ -16323,7 +16409,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -16344,7 +16430,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>499</v>
       </c>
@@ -16365,7 +16451,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>102</v>
       </c>
@@ -16386,7 +16472,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>49</v>
       </c>
@@ -16407,7 +16493,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>89</v>
       </c>
@@ -16428,7 +16514,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>291</v>
       </c>
@@ -16449,7 +16535,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -16470,7 +16556,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -16491,7 +16577,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>288</v>
       </c>
@@ -16512,7 +16598,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>284</v>
       </c>
@@ -16533,7 +16619,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>282</v>
       </c>
@@ -16554,7 +16640,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>280</v>
       </c>
@@ -16575,7 +16661,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>277</v>
       </c>
@@ -16596,7 +16682,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
@@ -16617,7 +16703,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>275</v>
       </c>
@@ -16638,7 +16724,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>224</v>
       </c>
@@ -16659,7 +16745,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>273</v>
       </c>
@@ -16680,7 +16766,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -16701,7 +16787,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -16722,7 +16808,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -16743,7 +16829,7 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>231</v>
       </c>
@@ -16764,7 +16850,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>22</v>
       </c>
@@ -16785,7 +16871,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>211</v>
       </c>
@@ -16806,7 +16892,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
@@ -16827,7 +16913,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>215</v>
       </c>
@@ -16848,7 +16934,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>213</v>
       </c>
@@ -16869,7 +16955,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>269</v>
       </c>
@@ -16890,7 +16976,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>267</v>
       </c>
@@ -16911,7 +16997,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>265</v>
       </c>
@@ -16932,7 +17018,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -16953,7 +17039,7 @@
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>42</v>
       </c>
@@ -16974,7 +17060,7 @@
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>261</v>
       </c>
@@ -16995,7 +17081,7 @@
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -17016,7 +17102,7 @@
       </c>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>38</v>
       </c>
@@ -17037,7 +17123,7 @@
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>33</v>
       </c>
@@ -17058,7 +17144,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>250</v>
       </c>
@@ -17079,7 +17165,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>259</v>
       </c>
@@ -17100,7 +17186,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -17121,7 +17207,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>242</v>
       </c>
@@ -17142,7 +17228,7 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>98</v>
       </c>
@@ -17163,7 +17249,7 @@
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>239</v>
       </c>
@@ -17184,7 +17270,7 @@
       </c>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>104</v>
       </c>
@@ -17205,7 +17291,7 @@
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>99</v>
       </c>
@@ -17226,7 +17312,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>100</v>
       </c>
@@ -17247,7 +17333,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>414</v>
       </c>
@@ -17268,7 +17354,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>209</v>
       </c>
@@ -17289,7 +17375,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>206</v>
       </c>
@@ -17310,7 +17396,7 @@
       </c>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>201</v>
       </c>
@@ -17331,7 +17417,7 @@
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>16</v>
       </c>
@@ -17352,7 +17438,7 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>230</v>
       </c>
@@ -17373,7 +17459,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>408</v>
       </c>
@@ -17394,7 +17480,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>304</v>
       </c>
@@ -17415,7 +17501,7 @@
       </c>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>160</v>
       </c>
@@ -17436,7 +17522,7 @@
       </c>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>229</v>
       </c>
@@ -17457,7 +17543,7 @@
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>203</v>
       </c>
@@ -17478,7 +17564,7 @@
       </c>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -17499,7 +17585,7 @@
       </c>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>245</v>
       </c>
@@ -17520,7 +17606,7 @@
       </c>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>263</v>
       </c>
@@ -17541,7 +17627,7 @@
       </c>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>107</v>
       </c>
@@ -17562,7 +17648,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>175</v>
       </c>
@@ -17583,7 +17669,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>131</v>
       </c>
@@ -17604,7 +17690,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
@@ -17625,7 +17711,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>217</v>
       </c>
@@ -17646,7 +17732,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>220</v>
       </c>
@@ -17667,7 +17753,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>412</v>
       </c>
@@ -17688,7 +17774,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>235</v>
       </c>
@@ -17709,7 +17795,7 @@
       </c>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>256</v>
       </c>
@@ -17730,7 +17816,7 @@
       </c>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>294</v>
       </c>
@@ -17751,7 +17837,7 @@
       </c>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>52</v>
       </c>
@@ -17772,7 +17858,7 @@
       </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>330</v>
       </c>
@@ -17793,7 +17879,7 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>337</v>
       </c>
@@ -17814,7 +17900,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>394</v>
       </c>
@@ -17835,7 +17921,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>247</v>
       </c>
@@ -17856,7 +17942,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>419</v>
       </c>
@@ -17877,7 +17963,7 @@
       </c>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>270</v>
       </c>
